--- a/topic.xlsx
+++ b/topic.xlsx
@@ -2,27 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +55,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +418,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="58.08984375" customWidth="1" min="2" max="2"/>
+    <col width="33.36328125" customWidth="1" min="3" max="3"/>
+    <col width="23.1796875" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -473,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hàm số bậc nhất và bậc hai</t>
+          <t>Bất phương trình và hệ bất phương trình bậc nhất hai ẩn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +505,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thống kê và xác suất</t>
+          <t>Vecto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +527,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phương pháp tọa độ trong mặt phẳng</t>
+          <t>Thống kê và xác suất</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,7 +549,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hình học không gian</t>
+          <t xml:space="preserve"> Hệ thức lượng trong tam giác</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,17 +571,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mệnh đề – Tập hợp</t>
+          <t xml:space="preserve">Hàm số, đồ thị và ứng dụng </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -583,17 +593,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hàm số bậc nhất và bậc hai</t>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -605,17 +615,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thống kê và xác suất</t>
+          <t>Đại số tổ hợp</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -627,17 +637,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Phương pháp tọa độ trong mặt phẳng</t>
+          <t>Động học</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -649,17 +659,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hình học không gian</t>
+          <t xml:space="preserve">Động lực học </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -671,17 +681,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mệnh đề – Tập hợp</t>
+          <t>Năng lượng ,công,công suất</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -693,17 +703,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hàm số bậc nhất và bậc hai</t>
+          <t>Động lượng</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -715,17 +725,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Thống kê và xác suất</t>
+          <t>Chuyển động tròn đều</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -737,17 +747,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Phương pháp tọa độ trong mặt phẳng</t>
+          <t>Biến dạng của vật rắn .Áp suất chất lỏng</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -759,17 +769,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hình học không gian</t>
+          <t>Cấu tạo nguyên tử</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -781,17 +791,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mệnh đề – Tập hợp</t>
+          <t>Bảng tuần hoàn các nguyên tố hóa học và định luật tuần hoàn</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>G010</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -803,17 +813,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hàm số bậc nhất và bậc hai</t>
+          <t xml:space="preserve"> Liên kết hóa học</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>G010</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -825,17 +835,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Thống kê và xác suất</t>
+          <t>Phản ứng oxi hóa - khử</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>G010</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -847,17 +857,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Phương pháp tọa độ trong mặt phẳng</t>
+          <t>Năng lượng hóa học</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>G010</t>
+          <t>G001</t>
         </is>
       </c>
     </row>
@@ -869,17 +879,6001 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Tốc độ phản ứng</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>S003</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>T021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nguyên tố nhóm halogen</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>S003</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>T022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hàm số lượng giác và phương trình lượng giác</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>T023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dãy số. Cấp số cộng và cấp số nhân</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>T024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Quan hệ song song trong không gian</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>T025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Giới hạn. Hàm số liên tục</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>T026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hàm số mũ và hàm số lôgarit</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>T027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Quan hệ vuông góc trong không gian</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>T028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Các quy tắc tính xác suất</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>T029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Đạo hàm</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>T030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dao động</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>T031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sóng</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>T032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Điện trường</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>T033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Dòng điện mạch điện</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>T034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Cân bằng hoá học</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>T035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrogen – sulfur</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>T036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Đại cương về hoá học hữu cơ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>T037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hydrocarbon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>T038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Dẫn xuất halogen - alcohol - phenol</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>T039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hợp chất carbonyl - carboxylic acid</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>T040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ứng dụng đạo hàm đề khảo sát và vẽ đồ thị hàm số</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>T041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vectơ và hệ trục tọa độ trong không gian</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>T042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Các số đặc trưng đo mức độ phân tán của mẫu số liệu ghép nhóm</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>T043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nguyên hàm và tích phân</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>T044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong không gian</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>T045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Xác suất có điều kiện</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>T046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Vật lí nhiệt</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>T047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Khí lí tưởng</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>T048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Từ trường</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>T049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Vật lí hạt nhân</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>T050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ester - lipid</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>T051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Carbohydrate</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>T052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hợp chất chứa nitrogen</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>T053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Polymer</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>T054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pin điện và điện phân</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>T055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Đại cương về kim loại</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>T056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nguyên tố nhóm IA và nhóm IIA</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>T057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sơ lược về dãy kim loại chuyển tiếp thứ nhất và phức chất</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>T058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>T059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>T060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>T061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>T062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Hình học không gian</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>T063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>T064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>T065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>T066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>T067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>T068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>S028</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>T069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>T070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>T071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>T072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>T073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>T074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>T075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>T076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>T077</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>T078</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>T079</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>T080</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>T081</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>T082</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>T083</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>G019</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>T084</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>G019</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>T085</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>G019</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>T086</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>G019</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>T087</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>G019</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>T088</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>G022</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>T089</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>G022</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>T090</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>G022</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>T091</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>G022</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>T092</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>G022</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>T093</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>G025</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>T094</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>G025</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>T095</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>G025</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>T096</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>G025</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>T097</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>G025</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>T098</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>G028</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>T099</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>G028</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>T100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>G028</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>T101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>G028</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>T102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>G028</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>T103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>S091</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>G031</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>T104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>S091</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>G031</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>T105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>S091</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>G031</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>T106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>S091</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>G031</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>T107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>S091</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>G031</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>T108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>S100</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>G034</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>T109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>S100</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>G034</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>T110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>S100</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>G034</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>T111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>S100</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>G034</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>T112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>S100</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>G034</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>T113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>S109</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>G037</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>T114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>S109</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>G037</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>T115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>S109</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>G037</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>T116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>S109</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>G037</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>T117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>S109</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>G037</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>T118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>G040</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>T119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>G040</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>T120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>G040</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>T121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>G040</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>T122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>G040</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>T123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>S127</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>G043</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>T124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>S127</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>G043</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>T125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>S127</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>G043</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>T126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>S127</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>G043</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>T127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>S127</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>G043</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>T128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>S136</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>G046</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>T129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>S136</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>G046</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>T130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>S136</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>G046</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>T131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>S136</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>G046</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>T132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>S136</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>G046</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>T133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>S145</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>G049</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>T134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>S145</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>G049</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>T135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>S145</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>G049</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>T136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>S145</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>G049</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>T137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>S145</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>G049</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>T138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>S154</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>G052</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>T139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>S154</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>G052</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>T140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>S154</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>G052</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>T141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>S154</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>G052</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>T142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>S154</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>G052</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>T143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>S163</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>G055</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>T144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>S163</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>G055</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>T145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>S163</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>G055</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>T146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>S163</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>G055</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>T147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>S163</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>G055</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>T148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>S172</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>G058</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>T149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>S172</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>G058</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>T150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>S172</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>G058</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>T151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>S172</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>G058</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>T152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>S172</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>G058</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>T153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>S181</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>G061</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>T154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>S181</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>G061</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>T155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>S181</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>G061</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>T156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>S181</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>G061</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>T157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>S181</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>G061</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>T158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>S190</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>G064</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>T159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>S190</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>G064</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>T160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>S190</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>G064</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>T161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>S190</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>G064</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>T162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>S190</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>G064</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>T163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>S199</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>G067</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>T164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>S199</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>G067</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>T165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>S199</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>G067</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>T166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>S199</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>G067</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>T167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>S199</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>G067</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>T168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>S208</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>G070</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>T169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>S208</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>G070</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>T170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>S208</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>G070</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>T171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>S208</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>G070</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>T172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>S208</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>G070</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>T173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>S217</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>G073</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>T174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>S217</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>G073</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>T175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>S217</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>G073</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>T176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>S217</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>G073</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>T177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>S217</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>G073</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>T178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>S226</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>G076</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>T179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>S226</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>G076</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>T180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>S226</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>G076</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>T181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>S226</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>G076</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>T182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>S226</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>G076</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>T183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>G079</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>T184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>G079</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>T185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>G079</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>T186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>G079</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>T187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>G079</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>T188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>S244</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>G082</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>T189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>S244</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>G082</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>T190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>S244</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>G082</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>T191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>S244</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>G082</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>T192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>S244</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>G082</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>T193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>S253</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>G085</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>T194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>S253</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>G085</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>T195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>S253</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>G085</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>T196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>S253</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>G085</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>T197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>S253</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>G085</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>T198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>S262</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>G088</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>T199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>S262</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>G088</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>T200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>S262</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>G088</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>T201</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>S262</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>G088</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>T202</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>S262</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>G088</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>T203</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>S271</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>G091</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>T204</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>S271</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>G091</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>T205</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>S271</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>G091</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>T206</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>S271</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>G091</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>T207</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>S271</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>G091</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>T208</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>S280</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>G094</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>T209</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>S280</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>G094</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>T210</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>S280</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>G094</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>T211</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>S280</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>G094</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>T212</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>S280</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>G094</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>T213</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>S289</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>G097</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>T214</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>S289</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>G097</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>T215</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>S289</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>G097</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>T216</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>S289</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>G097</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>T217</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>S289</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>G097</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>T218</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>S298</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>G100</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>T219</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>S298</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>G100</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>T220</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>S298</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>G100</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>T221</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>S298</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>G100</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>T222</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>S298</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>G100</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>T223</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>G109</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>T224</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>G109</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>T225</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>G109</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>T226</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>G109</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>T227</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>G109</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>T228</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>G112</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>T229</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>G112</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>T230</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>G112</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>T231</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>G112</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>T232</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>G112</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>T233</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>G115</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>T234</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>G115</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>T235</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>G115</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>T236</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>G115</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>T237</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>G115</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>T238</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>G118</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>T239</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>G118</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>T240</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>G118</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>T241</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>G118</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>T242</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>G118</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>T243</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>G121</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>T244</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>G121</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>T245</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>G121</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>T246</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>G121</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>T247</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>G121</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>T248</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>G124</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>T249</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>G124</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>T250</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>G124</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>T251</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>G124</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>T252</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>G124</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>T253</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>G127</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>T254</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>G127</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>T255</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>G127</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>T256</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>G127</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>T257</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>S064</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>G127</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>T258</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>G130</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>T259</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>G130</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>T260</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>G130</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>T261</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>G130</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>T262</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>S073</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>G130</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>T263</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>G133</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>T264</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>G133</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>T265</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>G133</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>T266</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>G133</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>T267</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>S082</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>G133</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>T268</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>T269</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>T270</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>T271</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>T272</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>T273</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>T274</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>T275</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>T276</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>T277</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>T278</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>T279</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>T280</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>T281</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>T282</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>T283</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>T284</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>T285</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>T286</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>T287</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>T288</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Mệnh đề – Tập hợp</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>T289</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Hàm số bậc nhất và bậc hai</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>T290</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Thống kê và xác suất</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>T291</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Phương pháp tọa độ trong mặt phẳng</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>T292</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Hình học không gian</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>G016</t>
         </is>
       </c>
     </row>
